--- a/삐삐는아이디/db.xlsx
+++ b/삐삐는아이디/db.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python\실습\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\실습\삐삐는아이디\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>보고싶어</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,14 @@
   </si>
   <si>
     <t>오직 너를 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,263 +612,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.58203125" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>61</v>
       </c>
     </row>
